--- a/DatosPasos.xlsx
+++ b/DatosPasos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e32b480a36d69a14/Documents/Estudios/TFM/Codigo limpio Repo/TFM_Bagging_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{BE5219BF-41A0-4068-902D-52E74314BB8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C13A3F51-F28C-4893-B390-380F5CFE2686}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{BE5219BF-41A0-4068-902D-52E74314BB8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3928F564-8E2B-498F-B8DE-45844D4EE5F6}"/>
   <bookViews>
-    <workbookView xWindow="21570" yWindow="30" windowWidth="36030" windowHeight="23670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="30" windowWidth="36030" windowHeight="23670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +137,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -150,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -158,6 +164,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +471,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,6 +645,24 @@
       <c r="D6" s="1">
         <v>0.75516693163751991</v>
       </c>
+      <c r="E6" s="2">
+        <v>0.732704402515723</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.74764890282131602</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.73241590214067198</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.75454545454545396</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.74422187981510002</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.73015873015873001</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -885,6 +911,24 @@
       <c r="D16" s="1">
         <v>0.90240770465489561</v>
       </c>
+      <c r="E16" s="2">
+        <v>0.88778454632895099</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.86408383613845596</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.84099673687333099</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.86887694145758598</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.87992884672398397</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.843621399176954</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -956,6 +1000,27 @@
       <c r="C20" s="1">
         <v>0.99690976514215079</v>
       </c>
+      <c r="D20" s="1">
+        <v>0.99664958612534493</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.99665222528554553</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.99741909866984313</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.99574310568202851</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.99576505247652369</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.99724416681976846</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.99666927899686519</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -965,6 +1030,27 @@
       <c r="C21" s="1">
         <v>0.99320148331273173</v>
       </c>
+      <c r="D21" s="1">
+        <v>0.99349625541978714</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.99487987396612843</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.99523525908278743</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.99481769387377383</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.99318725833179888</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.9950395002755833</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.99314263322884011</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -974,6 +1060,27 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
+      <c r="D22" s="1">
+        <v>0.99842333464722111</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.99881843245372193</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.99880881477069683</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.99925967055339626</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.9974222058552753</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.99816277787984564</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.99784482758620685</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -983,6 +1090,27 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
+      <c r="D23" s="1">
+        <v>0.99842333464722111</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.99862150452934229</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.9986102838991463</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.99925967055339626</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.99815871846805382</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.99853022230387656</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.99804075235109713</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -992,6 +1120,23 @@
       <c r="C24" s="1">
         <v>0.99505562422744132</v>
       </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="1">
+        <v>0.99703791469194314</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.99633296662999637</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.99628597957288767</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.99446085672082718</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.9941268598277212</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1001,6 +1146,27 @@
       <c r="C25" s="1">
         <v>0.99876390599999998</v>
       </c>
+      <c r="D25" s="1">
+        <v>0.99763500197083166</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.99763686490744385</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.99779735682819304</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.99907544378698199</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.99763500197083166</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.99763686490744385</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.99763500197083166</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1009,6 +1175,27 @@
       </c>
       <c r="C26" s="1">
         <v>0.99320148331273173</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.99290500591249509</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.99133517132729421</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.99384554298193373</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.99389228206551916</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.99208248941263122</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.99118133382325924</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.99275078369905956</v>
       </c>
     </row>
   </sheetData>

--- a/DatosPasos.xlsx
+++ b/DatosPasos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e32b480a36d69a14/Documents/Estudios/TFM/Codigo limpio Repo/TFM_Bagging_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{BE5219BF-41A0-4068-902D-52E74314BB8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3928F564-8E2B-498F-B8DE-45844D4EE5F6}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="8_{BE5219BF-41A0-4068-902D-52E74314BB8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0E1C55B0-C9E3-4A55-B489-CC56D49ADCFA}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="30" windowWidth="36030" windowHeight="23670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36060" yWindow="0" windowWidth="21495" windowHeight="21105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>PASO1</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>KDD</t>
+  </si>
+  <si>
+    <t>BBDD 7500</t>
   </si>
 </sst>
 </file>
@@ -92,11 +95,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +104,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -156,16 +160,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,249 +490,245 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.75993640699523057</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.802215189873417</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.79337539432176651</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.78341013824884798</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.79147640791476404</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.75336322869955152</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.79084967320261434</v>
+      <c r="C2" s="6">
+        <v>0.99690976514215079</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.99664958612534493</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.99665222528554553</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.99741909866984313</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.99574310568202851</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.99576505247652369</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.99724416681976846</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.99666927899686519</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.74085850556438793</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.719936708860759</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.70662460567823349</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.7250384024577573</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.69558599695585999</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.71300448430493268</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.70261437908496727</v>
+      <c r="C3" s="6">
+        <v>0.99320148331273173</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.99349625541978714</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.99487987396612843</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.99523525908278743</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.99481769387377383</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.99318725833179888</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.9950395002755833</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.99314263322884011</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.97615262321144669</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.979430379746835</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.97003154574132489</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.97388632872503844</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.96499238964992384</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.97458893871449925</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.9673202614379085</v>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.99842333464722111</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.99881843245372193</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.99880881477069683</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.99925967055339626</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.9974222058552753</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.99816277787984564</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.99784482758620685</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.89348171701112877</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.843354430379746</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.86435331230283907</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.85099846390168976</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.86910197869101979</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.89536621823617335</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.87091503267973858</v>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.99842333464722111</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.99862150452934229</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.9986102838991463</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.99925967055339626</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.99815871846805382</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.99853022230387656</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.99804075235109713</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.75516693163751991</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.732704402515723</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.74764890282131602</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.73241590214067198</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.75454545454545396</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.74422187981510002</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.73015873015873001</v>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.99505562422744132</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="6">
+        <v>0.99703791469194314</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.99633296662999637</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.99628597957288767</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.99446085672082718</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.9941268598277212</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.96820349761526237</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.969936708860759</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.9637223974763407</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.96466973886328722</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.9604261796042618</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.95216741405082217</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.97222222222222221</v>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.99876390599999998</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.99763500197083166</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.99763686490744385</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.99779735682819304</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.99907544378698199</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.99763500197083166</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.99763686490744385</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.99763500197083166</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.54848966613672501</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.680577849117175</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.58832807570977919</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.66359447004608296</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.67427701674277019</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.65171898355754854</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.62745098039215685</v>
+      <c r="C8" s="6">
+        <v>0.99320148331273173</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.99290500591249509</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.99133517132729421</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.99384554298193373</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.99389228206551916</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.99208248941263122</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.99118133382325924</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.99275078369905956</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
+      <c r="A10" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -757,212 +759,218 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.84719101123595508</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.86305732484076436</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.84813384813384818</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.8374887353559628</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.85106382978723405</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.85224903187369672</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.84588045234248788</v>
+      <c r="C11" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.75993640699523057</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.802215189873417</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.79337539432176651</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.78341013824884798</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.79147640791476404</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.75336322869955152</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.79084967320261434</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.80032102728731946</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.78514504303474653</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.79440154440154442</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.79783718834484829</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.78873239436619713</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.7953529937444147</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.80323101777059769</v>
+      <c r="C12" s="6">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.74085850556438793</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.719936708860759</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.70662460567823349</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.7250384024577573</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.69558599695585999</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.71300448430493268</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.70261437908496727</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.997</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.99422150882825044</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.98971391835422695</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.9925997425997426</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.9921898468008411</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.98921186694635899</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.99225498957402447</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.99515347334410342</v>
+      <c r="C13" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.97615262321144669</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.979430379746835</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.97003154574132489</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.97388632872503844</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.96499238964992384</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.97458893871449925</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.9673202614379085</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.995</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.99101123595505614</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.98888536043188313</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.98745173745173742</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.99279062781616101</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.99011087803416242</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.99285075960679181</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.99289176090468501</v>
+      <c r="C14" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.96820349761526237</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.969936708860759</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.9637223974763407</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.96466973886328722</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.9604261796042618</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.95216741405082217</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.97222222222222221</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="1">
-        <v>0.68937681627381342</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.79922779922779918</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.78552117753078998</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.71201678154030568</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.78969317843312481</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.68982229402261708</v>
+      <c r="C15" s="6">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.89348171701112877</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.843354430379746</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.86435331230283907</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.85099846390168976</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.86910197869101979</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.89536621823617335</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.87091503267973858</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.90240770465489561</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.88778454632895099</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.86408383613845596</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.84099673687333099</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.86887694145758598</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.87992884672398397</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.843621399176954</v>
+      <c r="C16" s="6">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.75516693163751991</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.732704402515723</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.74764890282131602</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.73241590214067198</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.75454545454545396</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.74422187981510002</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.73015873015873001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.76629213483146064</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.76856316297010607</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.76608751608751613</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.76839891859417242</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.77494755768654477</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.76437295204051237</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.77641357027463653</v>
+      <c r="C17" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.54848966613672501</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.680577849117175</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.58832807570977919</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.66359447004608296</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.67427701674277019</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.65171898355754854</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.62745098039215685</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
+      <c r="A19" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
@@ -997,29 +1005,29 @@
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.99690976514215079</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.99664958612534493</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.99665222528554553</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.99741909866984313</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.99574310568202851</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.99576505247652369</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.99724416681976846</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.99666927899686519</v>
+      <c r="C20" s="6">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.84719101123595508</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.86305732484076436</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.84813384813384818</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.8374887353559628</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.85224903187369672</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.84588045234248788</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1027,29 +1035,29 @@
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
-        <v>0.99320148331273173</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.99349625541978714</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.99487987396612843</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.99523525908278743</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.99481769387377383</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.99318725833179888</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.9950395002755833</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.99314263322884011</v>
+      <c r="C21" s="6">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.80032102728731946</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.78514504303474653</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.79440154440154442</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.79783718834484829</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.78873239436619713</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.7953529937444147</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.80323101777059769</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1057,29 +1065,29 @@
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.99842333464722111</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.99881843245372193</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.99880881477069683</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.99925967055339626</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.9974222058552753</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.99816277787984564</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.99784482758620685</v>
+      <c r="C22" s="6">
+        <v>0.997</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.99422150882825044</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.98971391835422695</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.9925997425997426</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.9921898468008411</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.98921186694635899</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.99225498957402447</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.99515347334410342</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1087,29 +1095,29 @@
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.99842333464722111</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.99862150452934229</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.9986102838991463</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.99925967055339626</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.99815871846805382</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.99853022230387656</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.99804075235109713</v>
+      <c r="C23" s="6">
+        <v>0.995</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.99101123595505614</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.98888536043188313</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.98745173745173742</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.99279062781616101</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.99011087803416242</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.99285075960679181</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.99289176090468501</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1117,25 +1125,25 @@
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="1">
-        <v>0.99505562422744132</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="1">
-        <v>0.99703791469194314</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.99633296662999637</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.99628597957288767</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.99446085672082718</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.9941268598277212</v>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6">
+        <v>0.68937681627381342</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.79922779922779918</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.78552117753078998</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.71201678154030568</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.78969317843312481</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.68982229402261708</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1143,29 +1151,29 @@
       <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="1">
-        <v>0.99876390599999998</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.99763500197083166</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.99763686490744385</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0.99779735682819304</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.99907544378698199</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.99763500197083166</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.99763686490744385</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.99763500197083166</v>
+      <c r="C25" s="6">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.90240770465489561</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.88778454632895099</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.86408383613845596</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.84099673687333099</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.86887694145758598</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.87992884672398397</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.843621399176954</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1173,30 +1181,226 @@
       <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="1">
-        <v>0.99320148331273173</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.99290500591249509</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.99133517132729421</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.99384554298193373</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.99389228206551916</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.99208248941263122</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.99118133382325924</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.99275078369905956</v>
-      </c>
+      <c r="C26" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.76629213483146064</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.76856316297010607</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.76608751608751613</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.76839891859417242</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.77494755768654477</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.76437295204051237</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.77641357027463653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.86133333333333328</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.85462274176408082</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.85756676557863498</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.86362649294245297</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.85808514891065302</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0.84595456357114296</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.84277733439744595</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.85166455962916099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.73198724760892664</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.72191606612971593</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.73593919652551498</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.72876274235458705</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.71323236349143004</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.69972067039106101</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.712389380530973</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.9986666666666667</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.9972369819341127</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.99724459516744379</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.99565689467969598</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.995802518488906</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.99521721801514496</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.99501197126895402</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.997260851243152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.99213602550478219</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.99342941924544304</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.99196525515743705</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.99220467719368299</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.99461937026703795</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.99181963288108499</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.99578592498946406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.69933333333333336</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.71200850159404894</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.70813904196693511</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.70445168295331095</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
